--- a/DataDictionary diagram .xlsx
+++ b/DataDictionary diagram .xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t xml:space="preserve">Field Name </t>
   </si>
@@ -216,12 +216,6 @@
   </si>
   <si>
     <t xml:space="preserve">This table will be updated by Userprofile table,and stored in descending ordered </t>
-  </si>
-  <si>
-    <t>Leaderboard(TopLosser)</t>
-  </si>
-  <si>
-    <t>TotalGame Lost</t>
   </si>
   <si>
     <t>Board</t>
@@ -374,13 +368,7 @@
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -394,6 +382,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -715,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G55" sqref="A50:G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,35 +725,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
       <c r="G1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -799,7 +793,7 @@
       <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
@@ -824,40 +818,40 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -877,7 +871,7 @@
       <c r="E10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="4">
         <v>100101102</v>
       </c>
     </row>
@@ -925,7 +919,7 @@
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C13" t="s">
@@ -937,7 +931,7 @@
       <c r="E13" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>43444.53162037037</v>
       </c>
     </row>
@@ -945,7 +939,7 @@
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C14" t="s">
@@ -957,7 +951,7 @@
       <c r="E14" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>43444.54886574074</v>
       </c>
       <c r="G14" s="10" t="s">
@@ -989,7 +983,7 @@
       <c r="A16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C16" t="s">
@@ -1007,40 +1001,40 @@
       <c r="G16" s="10"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1080,7 +1074,7 @@
       <c r="E22" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="6">
         <v>102</v>
       </c>
     </row>
@@ -1100,7 +1094,7 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="6">
         <v>104</v>
       </c>
     </row>
@@ -1117,10 +1111,10 @@
       <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="6">
         <v>312</v>
       </c>
     </row>
@@ -1140,45 +1134,45 @@
       <c r="E25" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="6">
         <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1218,7 +1212,7 @@
       <c r="E32" t="s">
         <v>46</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="4">
         <v>100101102</v>
       </c>
     </row>
@@ -1226,7 +1220,7 @@
       <c r="A33" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C33" t="s">
@@ -1243,40 +1237,40 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1324,7 +1318,7 @@
       <c r="A40" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C40" t="s">
@@ -1339,45 +1333,45 @@
       <c r="F40" t="s">
         <v>51</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="7" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1417,155 +1411,101 @@
       <c r="E47" t="s">
         <v>62</v>
       </c>
-      <c r="F47" s="8">
+      <c r="F47" s="6">
         <v>102</v>
       </c>
       <c r="G47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+    </row>
+    <row r="58" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E58" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F58" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53">
-        <v>20</v>
-      </c>
-      <c r="C53" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" t="s">
-        <v>11</v>
-      </c>
-      <c r="E53" t="s">
-        <v>38</v>
-      </c>
-      <c r="F53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>65</v>
       </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54" t="s">
-        <v>40</v>
-      </c>
-      <c r="D54" t="s">
-        <v>28</v>
-      </c>
-      <c r="E54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F54" s="8">
-        <v>102</v>
-      </c>
-      <c r="G54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
         <v>66</v>
       </c>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+      <c r="D59" t="s">
         <v>67</v>
       </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="E59" t="s">
         <v>68</v>
       </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>69</v>
-      </c>
-      <c r="E59" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>71</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1580,12 +1520,12 @@
         <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1600,12 +1540,12 @@
         <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1620,12 +1560,12 @@
         <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1640,12 +1580,12 @@
         <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1660,12 +1600,12 @@
         <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1680,12 +1620,12 @@
         <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1700,12 +1640,12 @@
         <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1720,67 +1660,67 @@
         <v>33</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B68">
         <v>10</v>
       </c>
       <c r="C68" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D68" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
         <v>62</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G68" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
+      <c r="A70" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
     </row>
     <row r="72" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1806,131 +1746,131 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
         <v>62</v>
       </c>
       <c r="F74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B75">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E75" t="s">
         <v>62</v>
       </c>
       <c r="F75" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
       <c r="C76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D76" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F76" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B77">
         <v>10</v>
       </c>
       <c r="C77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D77" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G77" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B80" s="1"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
+      <c r="A80" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="1"/>
-      <c r="B81" s="1"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
     </row>
     <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E82" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>20</v>
@@ -1945,42 +1885,42 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
+        <v>91</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84" t="s">
+        <v>66</v>
+      </c>
+      <c r="D84" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" t="s">
         <v>93</v>
       </c>
-      <c r="B84">
-        <v>10</v>
-      </c>
-      <c r="C84" t="s">
-        <v>68</v>
-      </c>
-      <c r="D84" t="s">
-        <v>69</v>
-      </c>
-      <c r="E84" t="s">
-        <v>95</v>
-      </c>
       <c r="F84" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A7:F8"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A35:F36"/>
     <mergeCell ref="A43:F44"/>
     <mergeCell ref="A50:F51"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="A70:F71"/>
     <mergeCell ref="A80:F81"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A7:F8"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A35:F36"/>
-    <mergeCell ref="G14:G16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F4" r:id="rId1"/>

--- a/DataDictionary diagram .xlsx
+++ b/DataDictionary diagram .xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E66F6A-C118-ED48-9B35-303C3D4C7A33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="100">
   <si>
     <t xml:space="preserve">Field Name </t>
   </si>
@@ -83,240 +84,265 @@
     <t>johndoe123,</t>
   </si>
   <si>
+    <t>GameID</t>
+  </si>
+  <si>
+    <t>host(Nickname)</t>
+  </si>
+  <si>
+    <t>Invitee(Nickname)</t>
+  </si>
+  <si>
+    <t>StartTime</t>
+  </si>
+  <si>
+    <t>EndTime</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Abodon</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Primary key,Not allowed null</t>
+  </si>
+  <si>
+    <t>----</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>mm/dd/yyyy  hh:mm:ss</t>
+  </si>
+  <si>
+    <t>allowed null</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>binary</t>
+  </si>
+  <si>
+    <t>true/false</t>
+  </si>
+  <si>
+    <t>UserProfile</t>
+  </si>
+  <si>
+    <t>Foreign key ,not allowed null</t>
+  </si>
+  <si>
+    <t>TotalGameWon</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>default is zero,not allowed null</t>
+  </si>
+  <si>
+    <t>TotalGameLost</t>
+  </si>
+  <si>
+    <t>TotalGamePlayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TotalGameAbonndoned </t>
+  </si>
+  <si>
+    <t>GameHistory</t>
+  </si>
+  <si>
+    <t>Foreign key,Not allowed null</t>
+  </si>
+  <si>
+    <t>WonColour</t>
+  </si>
+  <si>
+    <t>default is zero,not allowed null,check constraint (playedgame=won+lost+abondoned)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean </t>
+  </si>
+  <si>
+    <t>not allwed null,0-black,1-white</t>
+  </si>
+  <si>
+    <t>0,1</t>
+  </si>
+  <si>
+    <t>Invitation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comments </t>
+  </si>
+  <si>
+    <t>Ending time will be decided at end and game table table entry will be created at first</t>
+  </si>
+  <si>
+    <t>Sender Nickname</t>
+  </si>
+  <si>
+    <t>not allowed null,allowed duplicate</t>
+  </si>
+  <si>
+    <t>Reciever Nickname</t>
+  </si>
+  <si>
+    <t>Accepted invitation</t>
+  </si>
+  <si>
+    <t>default is zero,accepted 1</t>
+  </si>
+  <si>
+    <t>will set trigger on this column,default will be zero because whenever  reciever accept the invitation ,value gets updated in this column,once value updated trigger will help us to create Game table entry.</t>
+  </si>
+  <si>
+    <t>Leaderboard(TopWinner)</t>
+  </si>
+  <si>
+    <t>not allowed null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This table will be updated by Userprofile table,and stored in descending ordered </t>
+  </si>
+  <si>
+    <t>Board</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>auto incremented,</t>
+  </si>
+  <si>
+    <t>column1</t>
+  </si>
+  <si>
+    <t>column2</t>
+  </si>
+  <si>
+    <t>column3</t>
+  </si>
+  <si>
+    <t>column4</t>
+  </si>
+  <si>
+    <t>column5</t>
+  </si>
+  <si>
+    <t>column6</t>
+  </si>
+  <si>
+    <t>column7</t>
+  </si>
+  <si>
+    <t>column8</t>
+  </si>
+  <si>
+    <t>0-1-2</t>
+  </si>
+  <si>
+    <t>null/unicode</t>
+  </si>
+  <si>
+    <t>Gid</t>
+  </si>
+  <si>
+    <t>this one is for keeping the track of perticular game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moves </t>
+  </si>
+  <si>
+    <t>current location</t>
+  </si>
+  <si>
+    <t>next Location</t>
+  </si>
+  <si>
+    <t>5,10.68</t>
+  </si>
+  <si>
+    <t>//will require to do calculation to find box number</t>
+  </si>
+  <si>
+    <t>Piecec</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>//can have idea which piece moves</t>
+  </si>
+  <si>
+    <t>king,rook,etc</t>
+  </si>
+  <si>
+    <t>PieceName</t>
+  </si>
+  <si>
+    <t>PieceID</t>
+  </si>
+  <si>
+    <t>not allowed null,allows duplicate</t>
+  </si>
+  <si>
+    <t>not allowed null,Must be unique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Game </t>
-  </si>
-  <si>
-    <t>GameID</t>
-  </si>
-  <si>
-    <t>host(Nickname)</t>
-  </si>
-  <si>
-    <t>Invitee(Nickname)</t>
-  </si>
-  <si>
-    <t>StartTime</t>
-  </si>
-  <si>
-    <t>EndTime</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Abodon</t>
-  </si>
-  <si>
-    <t>Int</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Primary key,Not allowed null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>----</t>
-  </si>
-  <si>
-    <t>DateTime</t>
-  </si>
-  <si>
-    <t>mm/dd/yyyy  hh:mm:ss</t>
-  </si>
-  <si>
-    <t>allowed null</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>boolean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>binary</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>true/false</t>
-  </si>
-  <si>
-    <t>UserProfile</t>
-  </si>
-  <si>
-    <t>Foreign key ,not allowed null</t>
-  </si>
-  <si>
-    <t>TotalGameWon</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>default is zero,not allowed null</t>
-  </si>
-  <si>
-    <t>TotalGameLost</t>
-  </si>
-  <si>
-    <t>TotalGamePlayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TotalGameAbonndoned </t>
-  </si>
-  <si>
-    <t>GameHistory</t>
-  </si>
-  <si>
-    <t>Foreign key,Not allowed null</t>
-  </si>
-  <si>
-    <t>WonColour</t>
-  </si>
-  <si>
-    <t>default is zero,not allowed null,check constraint (playedgame=won+lost+abondoned)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean </t>
-  </si>
-  <si>
-    <t>not allwed null,0-black,1-white</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>Invitation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comments </t>
-  </si>
-  <si>
-    <t>Ending time will be decided at end and game table table entry will be created at first</t>
-  </si>
-  <si>
-    <t>Sender Nickname</t>
-  </si>
-  <si>
-    <t>not allowed null,allowed duplicate</t>
-  </si>
-  <si>
-    <t>Reciever Nickname</t>
-  </si>
-  <si>
-    <t>Accepted invitation</t>
-  </si>
-  <si>
-    <t>default is zero,accepted 1</t>
-  </si>
-  <si>
-    <t>will set trigger on this column,default will be zero because whenever  reciever accept the invitation ,value gets updated in this column,once value updated trigger will help us to create Game table entry.</t>
-  </si>
-  <si>
-    <t>Leaderboard(TopWinner)</t>
-  </si>
-  <si>
-    <t>not allowed null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This table will be updated by Userprofile table,and stored in descending ordered </t>
-  </si>
-  <si>
-    <t>Board</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">int </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number </t>
-  </si>
-  <si>
-    <t>auto incremented,</t>
-  </si>
-  <si>
-    <t>column1</t>
-  </si>
-  <si>
-    <t>column2</t>
-  </si>
-  <si>
-    <t>column3</t>
-  </si>
-  <si>
-    <t>column4</t>
-  </si>
-  <si>
-    <t>column5</t>
-  </si>
-  <si>
-    <t>column6</t>
-  </si>
-  <si>
-    <t>column7</t>
-  </si>
-  <si>
-    <t>column8</t>
-  </si>
-  <si>
-    <t>0-1-2</t>
-  </si>
-  <si>
-    <t>null/unicode</t>
-  </si>
-  <si>
-    <t>Gid</t>
-  </si>
-  <si>
-    <t>this one is for keeping the track of perticular game</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moves </t>
-  </si>
-  <si>
-    <t>current location</t>
-  </si>
-  <si>
-    <t>next Location</t>
-  </si>
-  <si>
-    <t>5,10.68</t>
-  </si>
-  <si>
-    <t>//will require to do calculation to find box number</t>
-  </si>
-  <si>
-    <t>Piecec</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>//can have idea which piece moves</t>
-  </si>
-  <si>
-    <t>king,rook,etc</t>
-  </si>
-  <si>
-    <t>PieceName</t>
-  </si>
-  <si>
-    <t>PieceID</t>
-  </si>
-  <si>
-    <t>not allowed null,allows duplicate</t>
-  </si>
-  <si>
-    <t>not allowed null,Must be unique</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Deactivated</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>allowed null,default false</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -324,7 +350,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -332,7 +358,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -340,8 +366,15 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -394,8 +427,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -411,7 +444,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -706,25 +739,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="G55" sqref="A50:G55"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="158" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.796875" customWidth="1"/>
+    <col min="2" max="2" width="18.59765625" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.59765625" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="77.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.59765625" customWidth="1"/>
+    <col min="7" max="7" width="77.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="30" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -734,10 +767,10 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,7 +790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -777,7 +810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -797,7 +830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -817,9 +850,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -827,7 +880,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -835,7 +888,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="23.25" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -855,29 +908,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>100101102</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -895,9 +948,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -915,18 +968,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -935,32 +988,32 @@
         <v>43444.53162037037</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>32</v>
-      </c>
-      <c r="E14" t="s">
-        <v>33</v>
       </c>
       <c r="F14" s="5">
         <v>43444.54886574074</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -972,37 +1025,37 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>34</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
         <v>35</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="G16" s="10"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="G16" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1010,7 +1063,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1018,7 +1071,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="24" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1052,95 +1105,95 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="B22">
-        <v>10</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" t="s">
         <v>40</v>
-      </c>
-      <c r="D22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" t="s">
-        <v>41</v>
       </c>
       <c r="F22" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23">
         <v>10</v>
       </c>
       <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
         <v>40</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>41</v>
       </c>
       <c r="F23" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="41.25" customHeight="1">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F24" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" t="s">
         <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>41</v>
       </c>
       <c r="F25" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1148,7 +1201,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1156,7 +1209,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="23.25" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1190,55 +1243,55 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
         <v>27</v>
       </c>
-      <c r="D32" t="s">
-        <v>28</v>
-      </c>
       <c r="E32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F32" s="4">
         <v>100101102</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" t="s">
         <v>49</v>
       </c>
-      <c r="D33" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>50</v>
       </c>
-      <c r="F33" t="s">
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>52</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1246,7 +1299,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1254,7 +1307,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1274,9 +1327,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -1288,15 +1341,15 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1308,38 +1361,38 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="45">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
+        <v>50</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F40" t="s">
-        <v>51</v>
-      </c>
-      <c r="G40" s="7" t="s">
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>61</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1347,7 +1400,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1355,7 +1408,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1389,36 +1442,36 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47" t="s">
         <v>39</v>
       </c>
-      <c r="B47">
-        <v>10</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
       <c r="D47" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="6">
         <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1426,7 +1479,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1434,7 +1487,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1442,12 +1495,12 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6">
       <c r="F54" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6">
       <c r="A56" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1455,7 +1508,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1463,7 +1516,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="22.5" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -1483,29 +1536,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
+        <v>64</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" t="s">
         <v>65</v>
       </c>
-      <c r="B59">
-        <v>10</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>66</v>
       </c>
-      <c r="D59" t="s">
+      <c r="E59" t="s">
         <v>67</v>
       </c>
-      <c r="E59" t="s">
+      <c r="F59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
         <v>68</v>
-      </c>
-      <c r="F59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>69</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1517,15 +1570,15 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1537,15 +1590,15 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1557,15 +1610,15 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1577,15 +1630,15 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1597,15 +1650,15 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1617,15 +1670,15 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1637,15 +1690,15 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F66" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1657,38 +1710,38 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F67" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>65</v>
+      </c>
+      <c r="D68" t="s">
+        <v>66</v>
+      </c>
+      <c r="E68" t="s">
+        <v>61</v>
+      </c>
+      <c r="F68" t="s">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s">
         <v>79</v>
       </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>66</v>
-      </c>
-      <c r="D68" t="s">
-        <v>67</v>
-      </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-      <c r="F68" t="s">
-        <v>77</v>
-      </c>
-      <c r="G68" t="s">
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1696,7 +1749,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1704,7 +1757,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="21.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1724,7 +1777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1738,101 +1791,101 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B74">
         <v>20</v>
       </c>
       <c r="C74" t="s">
+        <v>65</v>
+      </c>
+      <c r="D74" t="s">
         <v>66</v>
       </c>
-      <c r="D74" t="s">
-        <v>67</v>
-      </c>
       <c r="E74" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s">
         <v>84</v>
       </c>
-      <c r="G74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B75">
         <v>20</v>
       </c>
       <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
         <v>66</v>
       </c>
-      <c r="D75" t="s">
-        <v>67</v>
-      </c>
       <c r="E75" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B76">
         <v>10</v>
       </c>
       <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" t="s">
         <v>66</v>
       </c>
-      <c r="D76" t="s">
-        <v>67</v>
-      </c>
       <c r="E76" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F76" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" t="s">
+        <v>66</v>
+      </c>
+      <c r="E77" t="s">
         <v>91</v>
       </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>66</v>
-      </c>
-      <c r="D77" t="s">
-        <v>67</v>
-      </c>
-      <c r="E77" t="s">
-        <v>92</v>
-      </c>
       <c r="F77" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" t="s">
         <v>87</v>
       </c>
-      <c r="G77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1840,7 +1893,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1848,7 +1901,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="20.25" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,9 +1921,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83">
         <v>20</v>
@@ -1885,27 +1938,27 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
       <c r="C84" t="s">
+        <v>65</v>
+      </c>
+      <c r="D84" t="s">
         <v>66</v>
       </c>
-      <c r="D84" t="s">
-        <v>67</v>
-      </c>
       <c r="E84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1915,15 +1968,16 @@
     <mergeCell ref="A7:F8"/>
     <mergeCell ref="A18:F19"/>
     <mergeCell ref="A28:F29"/>
+    <mergeCell ref="A80:F81"/>
     <mergeCell ref="A35:F36"/>
     <mergeCell ref="A43:F44"/>
     <mergeCell ref="A50:F51"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="A70:F71"/>
-    <mergeCell ref="A80:F81"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/DataDictionary diagram .xlsx
+++ b/DataDictionary diagram .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunny/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E66F6A-C118-ED48-9B35-303C3D4C7A33}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="94">
   <si>
     <t xml:space="preserve">Field Name </t>
   </si>
@@ -84,6 +83,9 @@
     <t>johndoe123,</t>
   </si>
   <si>
+    <t xml:space="preserve">Game </t>
+  </si>
+  <si>
     <t>GameID</t>
   </si>
   <si>
@@ -304,45 +306,17 @@
   </si>
   <si>
     <t>not allowed null,Must be unique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Game </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>----</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>boolean</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>true/false</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Deactivated</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>allowed null,default false</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +324,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -358,7 +332,7 @@
       <b/>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -366,15 +340,8 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="新細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -427,8 +394,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="超連結" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,7 +411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,25 +706,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="158" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G55" sqref="A50:G55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.796875" customWidth="1"/>
-    <col min="2" max="2" width="18.59765625" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" customWidth="1"/>
-    <col min="4" max="4" width="21.59765625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
-    <col min="6" max="6" width="25.59765625" customWidth="1"/>
-    <col min="7" max="7" width="77.19921875" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1"/>
+    <col min="7" max="7" width="77.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" customHeight="1">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -767,10 +734,10 @@
       <c r="E1" s="8"/>
       <c r="F1" s="8"/>
       <c r="G1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="21" customHeight="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,7 +757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -810,7 +777,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -830,7 +797,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -850,29 +817,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -880,7 +827,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -888,7 +835,7 @@
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:7" ht="23.25" customHeight="1">
+    <row r="9" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -908,29 +855,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4">
         <v>100101102</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>20</v>
@@ -948,9 +895,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>20</v>
@@ -968,18 +915,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
         <v>14</v>
@@ -988,32 +935,32 @@
         <v>43444.53162037037</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="5">
         <v>43444.54886574074</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>20</v>
@@ -1025,37 +972,37 @@
         <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
       </c>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
       <c r="F16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G16" s="10"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1063,7 +1010,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1071,7 +1018,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6" ht="24" customHeight="1">
+    <row r="20" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>0</v>
       </c>
@@ -1091,7 +1038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1105,95 +1052,95 @@
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22">
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F22" s="6">
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" t="s">
         <v>41</v>
-      </c>
-      <c r="B23">
-        <v>10</v>
-      </c>
-      <c r="C23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" t="s">
-        <v>40</v>
       </c>
       <c r="F23" s="6">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="41.25" customHeight="1">
+    <row r="24" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F24" s="6">
         <v>312</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B25">
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F25" s="6">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -1201,7 +1148,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -1209,7 +1156,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:6" ht="23.25" customHeight="1">
+    <row r="30" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -1243,55 +1190,55 @@
         <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B32">
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F32" s="4">
         <v>100101102</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -1299,7 +1246,7 @@
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -1307,7 +1254,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37" spans="1:7" ht="22.5" customHeight="1">
+    <row r="37" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,9 +1274,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38">
         <v>20</v>
@@ -1341,15 +1288,15 @@
         <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>20</v>
@@ -1361,38 +1308,38 @@
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="45">
+    <row r="40" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -1400,7 +1347,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -1408,7 +1355,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
     </row>
-    <row r="45" spans="1:7" ht="22.5" customHeight="1">
+    <row r="45" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>0</v>
       </c>
@@ -1428,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -1442,36 +1389,36 @@
         <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B47">
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D47" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F47" s="6">
         <v>102</v>
       </c>
       <c r="G47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -1479,7 +1426,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -1487,7 +1434,7 @@
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -1495,12 +1442,12 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F54" s="6"/>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -1508,7 +1455,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="9"/>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -1516,7 +1463,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
     </row>
-    <row r="58" spans="1:6" ht="22.5" customHeight="1">
+    <row r="58" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
@@ -1536,29 +1483,29 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B59">
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E59" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60">
         <v>10</v>
@@ -1570,15 +1517,15 @@
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61">
         <v>10</v>
@@ -1590,15 +1537,15 @@
         <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62">
         <v>10</v>
@@ -1610,15 +1557,15 @@
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63">
         <v>10</v>
@@ -1630,15 +1577,15 @@
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F63" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B64">
         <v>10</v>
@@ -1650,15 +1597,15 @@
         <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B65">
         <v>10</v>
@@ -1670,15 +1617,15 @@
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B66">
         <v>10</v>
@@ -1690,15 +1637,15 @@
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B67">
         <v>10</v>
@@ -1710,38 +1657,38 @@
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="F68" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
-        <v>78</v>
-      </c>
-      <c r="B68">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" t="s">
-        <v>66</v>
-      </c>
-      <c r="E68" t="s">
-        <v>61</v>
-      </c>
-      <c r="F68" t="s">
-        <v>76</v>
-      </c>
       <c r="G68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -1749,7 +1696,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9"/>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -1757,7 +1704,7 @@
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
     </row>
-    <row r="72" spans="1:7" ht="21.75" customHeight="1">
+    <row r="72" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>0</v>
       </c>
@@ -1777,7 +1724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -1791,101 +1738,101 @@
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B74">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E74" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F74" t="s">
+        <v>84</v>
+      </c>
+      <c r="G74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>83</v>
-      </c>
-      <c r="G74" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
-        <v>82</v>
       </c>
       <c r="B75">
         <v>20</v>
       </c>
       <c r="C75" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+      <c r="F75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76" t="s">
         <v>66</v>
       </c>
-      <c r="E75" t="s">
-        <v>61</v>
-      </c>
-      <c r="F75" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76">
-        <v>10</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
-      </c>
       <c r="D76" t="s">
+        <v>67</v>
+      </c>
+      <c r="E76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>91</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77" t="s">
         <v>66</v>
       </c>
-      <c r="E76" t="s">
-        <v>91</v>
-      </c>
-      <c r="F76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77">
-        <v>10</v>
-      </c>
-      <c r="C77" t="s">
-        <v>65</v>
-      </c>
       <c r="D77" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E77" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G77" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="G77" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -1893,7 +1840,7 @@
       <c r="E80" s="9"/>
       <c r="F80" s="9"/>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="9"/>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -1901,7 +1848,7 @@
       <c r="E81" s="9"/>
       <c r="F81" s="9"/>
     </row>
-    <row r="82" spans="1:6" ht="20.25" customHeight="1">
+    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>0</v>
       </c>
@@ -1921,9 +1868,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B83">
         <v>20</v>
@@ -1938,27 +1885,27 @@
         <v>13</v>
       </c>
       <c r="F83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>10</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1968,16 +1915,15 @@
     <mergeCell ref="A7:F8"/>
     <mergeCell ref="A18:F19"/>
     <mergeCell ref="A28:F29"/>
-    <mergeCell ref="A80:F81"/>
     <mergeCell ref="A35:F36"/>
     <mergeCell ref="A43:F44"/>
     <mergeCell ref="A50:F51"/>
     <mergeCell ref="A56:F57"/>
     <mergeCell ref="A70:F71"/>
+    <mergeCell ref="A80:F81"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
